--- a/media/Copy of Attendance_Sample(3553).xlsx
+++ b/media/Copy of Attendance_Sample(3553).xlsx
@@ -3802,8 +3802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
